--- a/src/assets/tamplate/BOQ.xlsx
+++ b/src/assets/tamplate/BOQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chandralok.pandey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\LIVE PROJECTS\GEPDEC Infra Software Development\GEPDEC INFRA APP\APP\src\assets\tamplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F1B338-B519-418A-83A9-98E63DEFC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74FFF3-8C9E-47F1-9777-CA93E178E595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6F8519C-E1BD-499A-B0AA-EB80B60C53DC}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="BOQ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOQ!$A$1:$F$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BOQ!$A$1:$F$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOQ!$A$1:$G$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOQ!$A$1:$G$115</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S No.</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>BASIC VALUE</t>
+  </si>
+  <si>
+    <t>Item Code</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,973 +576,1091 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="8"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="8"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="8"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="8"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="8"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="8"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="5"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="8"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="8"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="8"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="8"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="8"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="3"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="8"/>
-      <c r="E93" s="5"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="8"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="8"/>
-      <c r="E100" s="5"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="8"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="8"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="8"/>
-      <c r="E106" s="5"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="8"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="3"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="8"/>
-      <c r="E110" s="5"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="8"/>
-      <c r="E111" s="5"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="8"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="8"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="8"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="14"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Only Numeric Values are allowed. " sqref="A2:A115" xr:uid="{C4992D15-47F3-45F7-9153-79C91F1681AD}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Only Numeric Values are allowed. " sqref="A2:B115" xr:uid="{C4992D15-47F3-45F7-9153-79C91F1681AD}">
       <formula1>0</formula1>
       <formula2>999999999999999</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Units" prompt="Please enter Units in text" sqref="C2:D23 C25:D30 C32:D80 C82:D115" xr:uid="{6703DF45-1B7D-4C84-A44B-C722170A854B}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Only Numeric Values are allowed. " promptTitle="Quantity" prompt="Please enter the Quantity for this item. " sqref="E2:F115" xr:uid="{70086BCD-79C9-419D-A25F-5349ACD9B23C}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Units" prompt="Please enter Units in text" sqref="D2:E23 D25:E30 D32:E80 D82:E115" xr:uid="{6703DF45-1B7D-4C84-A44B-C722170A854B}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Only Numeric Values are allowed. " promptTitle="Quantity" prompt="Please enter the Quantity for this item. " sqref="F2:G115" xr:uid="{70086BCD-79C9-419D-A25F-5349ACD9B23C}">
       <formula1>0</formula1>
       <formula2>999999999999999</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Item Description" prompt="Please enter Item Description in text" sqref="B85:B115 B3:B80" xr:uid="{E0F069BA-FDA9-4941-86F3-F3087F45D725}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Item Description" prompt="Please enter Item Description in text" sqref="C85:C115 C3:C80" xr:uid="{E0F069BA-FDA9-4941-86F3-F3087F45D725}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>